--- a/bin/frameCfg/General/GeneralDateRegionConfig.xlsx
+++ b/bin/frameCfg/General/GeneralDateRegionConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\P13-platformLibrary\programe\platform\bin\frameCfg\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BJTU\xqx\platform\bin\frameCfg\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142BE677-C533-47D8-9BF7-008B5E88E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="信息头" sheetId="5" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="帧格式2" sheetId="6" r:id="rId3"/>
     <sheet name="信息字格式3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,42 +356,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>确认标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cmd_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_retry_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重传次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>head_is_ask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINT8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_cmd_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_retry_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重传次数</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,32 +727,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D76109-660A-4AF2-B798-1023B3B32D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="25.9140625" customWidth="1"/>
+    <col min="9" max="9" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -780,12 +779,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -794,18 +793,18 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -814,18 +813,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -834,18 +833,18 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -854,18 +853,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -874,18 +873,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -894,18 +893,18 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -914,18 +913,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -934,18 +933,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -954,18 +953,18 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -974,18 +973,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -994,18 +993,18 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -1014,18 +1013,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -1034,18 +1033,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -1054,18 +1053,18 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
       </c>
       <c r="C17">
         <v>26</v>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1083,40 +1082,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4D101-A52B-44BE-81C2-B4813E96522D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="39.9140625" customWidth="1"/>
+    <col min="9" max="9" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1140,12 +1140,12 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1157,15 +1157,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1177,15 +1177,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1197,15 +1197,15 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1217,15 +1217,15 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1237,15 +1237,15 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1257,25 +1257,25 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,16 +1283,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF60A42-1E70-4E4D-8001-13421B6EFDD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1300,9 +1300,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1326,12 +1326,12 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1343,18 +1343,18 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1363,18 +1363,18 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1383,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1397,36 +1397,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9447A2F3-0DF8-41A8-9C0C-32A6A7C26C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1450,12 +1450,12 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1467,15 +1467,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1487,15 +1487,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1507,15 +1507,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1527,15 +1527,15 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1547,15 +1547,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1567,15 +1567,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1587,15 +1587,15 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1607,15 +1607,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1627,15 +1627,15 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1647,23 +1647,23 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
